--- a/data/trans_orig/IP05A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A07-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC0E132D-79AA-492B-A8D0-111871B1279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B353D1-35AA-4C3A-91C0-365FE61F666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{507071CF-1C23-42C0-A720-F8D5BCF0FB1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6322B551-FC01-4BCD-B85D-C5D2619156F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="408">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>57,4%</t>
   </si>
   <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
   </si>
   <si>
     <t>53,66%</t>
   </si>
   <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
   </si>
   <si>
     <t>55,53%</t>
   </si>
   <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>28,86%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,28 +136,28 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,1114 +169,1099 @@
     <t>50,18%</t>
   </si>
   <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
     <t>45,13%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2015 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590D2984-D263-4BF2-BF1B-DBD8B0E8B18C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F52B5E7-3590-457E-B01C-A4223FE05134}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2329,10 +2314,10 @@
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -2341,13 +2326,13 @@
         <v>20936</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -2356,13 +2341,13 @@
         <v>41521</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2403,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2430,13 +2415,13 @@
         <v>99701</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>127</v>
@@ -2445,13 +2430,13 @@
         <v>87948</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>273</v>
@@ -2460,10 +2445,10 @@
         <v>187649</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>105</v>
@@ -2850,7 +2835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEB6299-0439-4B87-8EC2-9496C414F695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7946C764-3BBD-411A-BB61-8A860745C45D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3580,7 +3565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3610,10 +3595,10 @@
         <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>303</v>
@@ -3622,13 +3607,13 @@
         <v>219105</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3628,13 @@
         <v>40731</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3658,13 +3643,13 @@
         <v>46446</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -3673,13 +3658,13 @@
         <v>87178</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3679,13 @@
         <v>23013</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -3709,13 +3694,13 @@
         <v>16886</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -3724,13 +3709,13 @@
         <v>39899</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3783,13 @@
         <v>493486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>693</v>
@@ -3813,13 +3798,13 @@
         <v>459140</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>1394</v>
@@ -3828,13 +3813,13 @@
         <v>952627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3834,13 @@
         <v>173441</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -3864,13 +3849,13 @@
         <v>177979</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>519</v>
@@ -3879,13 +3864,13 @@
         <v>351421</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,10 +3888,10 @@
         <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -3915,13 +3900,13 @@
         <v>64969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -3930,13 +3915,13 @@
         <v>142208</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +3997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E06B07-FB7D-488F-9067-10437BD4A7D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C475F-E7AA-4181-8963-376735C43E77}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4029,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4136,13 +4121,13 @@
         <v>47233</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>86</v>
@@ -4151,13 +4136,13 @@
         <v>44057</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>183</v>
@@ -4166,13 +4151,13 @@
         <v>91290</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4172,13 @@
         <v>7172</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -4202,13 +4187,13 @@
         <v>8171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -4217,13 +4202,13 @@
         <v>15342</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4223,13 @@
         <v>4098</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -4253,13 +4238,13 @@
         <v>5141</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4268,13 +4253,13 @@
         <v>9239</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4327,13 @@
         <v>124618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -4357,13 +4342,13 @@
         <v>125531</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>402</v>
@@ -4372,13 +4357,13 @@
         <v>250149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4378,13 @@
         <v>27339</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -4408,13 +4393,13 @@
         <v>14937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -4423,13 +4408,13 @@
         <v>42276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4429,13 @@
         <v>23342</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4459,13 +4444,13 @@
         <v>17125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4474,13 +4459,13 @@
         <v>40467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4533,13 @@
         <v>156557</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -4563,13 +4548,13 @@
         <v>128444</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>360</v>
@@ -4578,13 +4563,13 @@
         <v>285000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4584,13 @@
         <v>25815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -4614,13 +4599,13 @@
         <v>32562</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4629,13 +4614,13 @@
         <v>58376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4635,13 @@
         <v>19206</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -4665,13 +4650,13 @@
         <v>15940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -4680,13 +4665,13 @@
         <v>35146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,7 +4727,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4754,13 +4739,13 @@
         <v>223668</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
@@ -4769,13 +4754,13 @@
         <v>192998</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>525</v>
@@ -4784,13 +4769,13 @@
         <v>416666</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4790,13 @@
         <v>46434</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -4820,13 +4805,13 @@
         <v>50561</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4835,13 +4820,13 @@
         <v>96995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4841,13 @@
         <v>19322</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -4871,13 +4856,13 @@
         <v>17074</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -4889,10 +4874,10 @@
         <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4945,13 @@
         <v>552075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
         <v>722</v>
@@ -4975,13 +4960,13 @@
         <v>491030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>1470</v>
@@ -4990,13 +4975,13 @@
         <v>1043105</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +4996,13 @@
         <v>106759</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H21" s="7">
         <v>140</v>
@@ -5026,13 +5011,13 @@
         <v>106231</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M21" s="7">
         <v>281</v>
@@ -5044,10 +5029,10 @@
         <v>118</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,10 +5050,10 @@
         <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -5077,13 +5062,13 @@
         <v>55280</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>167</v>
@@ -5092,13 +5077,13 @@
         <v>121248</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP05A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B353D1-35AA-4C3A-91C0-365FE61F666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4C1B72-5AC3-47B1-BA26-2AA9AF4BF538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6322B551-FC01-4BCD-B85D-C5D2619156F9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B25BB800-7324-4B8E-910B-6B6336441C35}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="410">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1195 +73,1201 @@
     <t>Nada</t>
   </si>
   <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>10,23%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F52B5E7-3590-457E-B01C-A4223FE05134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D651F58-1299-4A55-9FCB-C00146D8A977}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1791,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7">
-        <v>83793</v>
+        <v>78415</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1806,10 +1812,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I4" s="7">
-        <v>78415</v>
+        <v>83793</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1842,10 +1848,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7">
-        <v>42133</v>
+        <v>50238</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1857,10 +1863,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>50238</v>
+        <v>42133</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1893,10 +1899,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
-        <v>20064</v>
+        <v>17481</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1908,10 +1914,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>17481</v>
+        <v>20064</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1944,25 +1950,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>218</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146134</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>207</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145990</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>218</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146134</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1997,10 +2003,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D8" s="7">
-        <v>134974</v>
+        <v>126346</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2012,10 +2018,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="I8" s="7">
-        <v>126346</v>
+        <v>134974</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2048,10 +2054,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7">
-        <v>97800</v>
+        <v>88403</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2063,10 +2069,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>88403</v>
+        <v>97800</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2099,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>36217</v>
+        <v>21501</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2114,10 +2120,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>21501</v>
+        <v>36217</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2150,25 +2156,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2203,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D12" s="7">
-        <v>78160</v>
+        <v>88341</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2218,10 +2224,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I12" s="7">
-        <v>88341</v>
+        <v>78160</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2254,10 +2260,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>59826</v>
+        <v>47766</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2269,10 +2275,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>47766</v>
+        <v>59826</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2308,31 +2314,31 @@
         <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>20585</v>
+        <v>20936</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>20936</v>
+        <v>20585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -2341,13 +2347,13 @@
         <v>41521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,25 +2362,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2403,40 +2409,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>127</v>
+      </c>
+      <c r="D16" s="7">
+        <v>87948</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
         <v>146</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>99701</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="7">
-        <v>127</v>
-      </c>
-      <c r="I16" s="7">
-        <v>87948</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>273</v>
@@ -2445,13 +2451,13 @@
         <v>187649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,34 +2466,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7">
+        <v>56250</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>90</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>61192</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="7">
-        <v>79</v>
-      </c>
-      <c r="I17" s="7">
-        <v>56250</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>169</v>
@@ -2496,13 +2502,13 @@
         <v>117442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,34 +2517,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7">
+        <v>26372</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="7">
         <v>29</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>19062</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="7">
-        <v>36</v>
-      </c>
-      <c r="I18" s="7">
-        <v>26372</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -2547,13 +2553,13 @@
         <v>45434</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,25 +2568,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>242</v>
+      </c>
+      <c r="D19" s="7">
+        <v>170569</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>242</v>
-      </c>
-      <c r="I19" s="7">
-        <v>170569</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2615,34 +2621,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>553</v>
+      </c>
+      <c r="D20" s="7">
+        <v>381050</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="7">
         <v>571</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>396627</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="7">
-        <v>553</v>
-      </c>
-      <c r="I20" s="7">
-        <v>381050</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>1124</v>
@@ -2666,10 +2672,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="D21" s="7">
-        <v>260952</v>
+        <v>242657</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>133</v>
@@ -2681,10 +2687,10 @@
         <v>135</v>
       </c>
       <c r="H21" s="7">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="I21" s="7">
-        <v>242657</v>
+        <v>260952</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>136</v>
@@ -2708,7 +2714,7 @@
         <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,34 +2723,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>122</v>
+      </c>
+      <c r="D22" s="7">
+        <v>86289</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="7">
         <v>136</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>95928</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="7">
-        <v>122</v>
-      </c>
-      <c r="I22" s="7">
-        <v>86289</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -2753,13 +2759,13 @@
         <v>182217</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,25 +2774,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1023</v>
+      </c>
+      <c r="D23" s="7">
+        <v>709996</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1074</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>753507</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I23" s="7">
-        <v>709996</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2815,7 +2821,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2835,7 +2841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7946C764-3BBD-411A-BB61-8A860745C45D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BE494C-CE40-47C1-831B-712ED4FCC9F0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2852,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2953,34 +2959,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>143</v>
+      </c>
+      <c r="D4" s="7">
+        <v>88538</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="7">
         <v>133</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>88957</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="7">
-        <v>143</v>
-      </c>
-      <c r="I4" s="7">
-        <v>88538</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>276</v>
@@ -2989,13 +2995,13 @@
         <v>177494</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,34 +3010,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30687</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="7">
         <v>42</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>26984</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="7">
-        <v>48</v>
-      </c>
-      <c r="I5" s="7">
-        <v>30687</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -3040,13 +3046,13 @@
         <v>57671</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,34 +3061,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11886</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="7">
         <v>12</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>8224</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="7">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7">
-        <v>11886</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -3091,13 +3097,13 @@
         <v>20109</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,25 +3112,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>210</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131111</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>210</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131111</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3159,34 +3165,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>216</v>
+      </c>
+      <c r="D8" s="7">
+        <v>137506</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="7">
         <v>250</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>171430</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="7">
-        <v>216</v>
-      </c>
-      <c r="I8" s="7">
-        <v>137506</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>466</v>
@@ -3195,13 +3201,13 @@
         <v>308935</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,34 +3216,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>88</v>
+      </c>
+      <c r="D9" s="7">
+        <v>55843</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="7">
         <v>92</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>61841</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H9" s="7">
-        <v>88</v>
-      </c>
-      <c r="I9" s="7">
-        <v>55843</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>180</v>
@@ -3246,13 +3252,13 @@
         <v>117684</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,34 +3267,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16597</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="7">
         <v>38</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>24790</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16597</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -3297,13 +3303,13 @@
         <v>41387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,25 +3318,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>331</v>
+      </c>
+      <c r="D11" s="7">
+        <v>209946</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>331</v>
-      </c>
-      <c r="I11" s="7">
-        <v>209946</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3365,34 +3371,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>179</v>
+      </c>
+      <c r="D12" s="7">
+        <v>124295</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" s="7">
         <v>170</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>122797</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="H12" s="7">
-        <v>179</v>
-      </c>
-      <c r="I12" s="7">
-        <v>124295</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>349</v>
@@ -3401,13 +3407,13 @@
         <v>247092</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,34 +3422,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45003</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="7">
         <v>62</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>43885</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" s="7">
-        <v>66</v>
-      </c>
-      <c r="I13" s="7">
-        <v>45003</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -3452,13 +3458,13 @@
         <v>88888</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,34 +3473,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>19601</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
         <v>30</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>21212</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" s="7">
-        <v>27</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19601</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -3503,13 +3509,13 @@
         <v>40812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,25 +3524,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>187894</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3565,40 +3571,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>155</v>
+      </c>
+      <c r="D16" s="7">
+        <v>108801</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="7">
         <v>148</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>110304</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="7">
-        <v>155</v>
-      </c>
-      <c r="I16" s="7">
-        <v>108801</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>303</v>
@@ -3607,13 +3613,13 @@
         <v>219105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,34 +3628,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7">
+        <v>46446</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="7">
         <v>55</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>40731</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="H17" s="7">
-        <v>66</v>
-      </c>
-      <c r="I17" s="7">
-        <v>46446</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -3658,13 +3664,13 @@
         <v>87178</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,34 +3679,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7">
+        <v>16886</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="7">
         <v>32</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>23013</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="H18" s="7">
-        <v>24</v>
-      </c>
-      <c r="I18" s="7">
-        <v>16886</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>56</v>
@@ -3709,13 +3715,13 @@
         <v>39899</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,25 +3730,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>245</v>
+      </c>
+      <c r="D19" s="7">
+        <v>172133</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>245</v>
-      </c>
-      <c r="I19" s="7">
-        <v>172133</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3777,34 +3783,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>693</v>
+      </c>
+      <c r="D20" s="7">
+        <v>459140</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="7">
         <v>701</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>493486</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H20" s="7">
-        <v>693</v>
-      </c>
-      <c r="I20" s="7">
-        <v>459140</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>1394</v>
@@ -3813,13 +3819,13 @@
         <v>952627</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,34 +3834,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>268</v>
+      </c>
+      <c r="D21" s="7">
+        <v>177979</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" s="7">
         <v>251</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>173441</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H21" s="7">
-        <v>268</v>
-      </c>
-      <c r="I21" s="7">
-        <v>177979</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>519</v>
@@ -3864,13 +3870,13 @@
         <v>351421</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,34 +3885,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>97</v>
+      </c>
+      <c r="D22" s="7">
+        <v>64969</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="7">
         <v>112</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>77239</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H22" s="7">
-        <v>97</v>
-      </c>
-      <c r="I22" s="7">
-        <v>64969</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -3915,13 +3921,13 @@
         <v>142208</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,25 +3936,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D23" s="7">
+        <v>702089</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1064</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744166</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I23" s="7">
-        <v>702089</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3963,7 +3969,7 @@
         <v>2122</v>
       </c>
       <c r="N23" s="7">
-        <v>1446256</v>
+        <v>1446255</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3977,7 +3983,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +4003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C475F-E7AA-4181-8963-376735C43E77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75D587F-8F74-45AC-8329-1B07780BD699}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4014,7 +4020,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4115,49 +4121,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>86</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44186</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="7">
         <v>97</v>
       </c>
-      <c r="D4" s="7">
-        <v>47233</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>49974</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H4" s="7">
-        <v>86</v>
-      </c>
-      <c r="I4" s="7">
-        <v>44057</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>183</v>
       </c>
       <c r="N4" s="7">
-        <v>91290</v>
+        <v>94160</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,49 +4172,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8174</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="7">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>7172</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>7346</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="H5" s="7">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8171</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
       </c>
       <c r="N5" s="7">
-        <v>15342</v>
+        <v>15520</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,49 +4223,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5151</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
-        <v>4098</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>4124</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H6" s="7">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5141</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>9239</v>
+        <v>9274</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,25 +4274,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4301,7 +4307,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4321,49 +4327,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>205</v>
+      </c>
+      <c r="D8" s="7">
+        <v>126500</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="7">
         <v>197</v>
       </c>
-      <c r="D8" s="7">
-        <v>124618</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>129718</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H8" s="7">
-        <v>205</v>
-      </c>
-      <c r="I8" s="7">
-        <v>125531</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>402</v>
       </c>
       <c r="N8" s="7">
-        <v>250149</v>
+        <v>256218</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,49 +4378,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14494</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="7">
         <v>46</v>
       </c>
-      <c r="D9" s="7">
-        <v>27339</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>27938</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H9" s="7">
-        <v>26</v>
-      </c>
-      <c r="I9" s="7">
-        <v>14937</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
       </c>
       <c r="N9" s="7">
-        <v>42276</v>
+        <v>42433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,49 +4429,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16888</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="7">
         <v>33</v>
       </c>
-      <c r="D10" s="7">
-        <v>23342</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>24898</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H10" s="7">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
-        <v>17125</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>40467</v>
+        <v>41786</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,25 +4480,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>257</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157882</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>257</v>
-      </c>
       <c r="I11" s="7">
-        <v>157593</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4507,7 +4513,7 @@
         <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>332892</v>
+        <v>340437</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4527,49 +4533,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>170</v>
+      </c>
+      <c r="D12" s="7">
+        <v>126709</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="7">
         <v>190</v>
       </c>
-      <c r="D12" s="7">
-        <v>156557</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H12" s="7">
-        <v>170</v>
-      </c>
       <c r="I12" s="7">
-        <v>128444</v>
+        <v>163475</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
         <v>360</v>
       </c>
       <c r="N12" s="7">
-        <v>285000</v>
+        <v>290183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,25 +4584,25 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>25815</v>
+        <v>31601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>344</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>32562</v>
+        <v>27491</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>345</v>
@@ -4611,7 +4617,7 @@
         <v>73</v>
       </c>
       <c r="N13" s="7">
-        <v>58376</v>
+        <v>59092</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>348</v>
@@ -4629,49 +4635,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7">
+        <v>15577</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="7">
         <v>22</v>
       </c>
-      <c r="D14" s="7">
-        <v>19206</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>20581</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H14" s="7">
-        <v>21</v>
-      </c>
-      <c r="I14" s="7">
-        <v>15940</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>35146</v>
+        <v>36159</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,25 +4686,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4713,7 +4719,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4727,55 +4733,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>261</v>
+      </c>
+      <c r="D16" s="7">
+        <v>191370</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H16" s="7">
         <v>264</v>
       </c>
-      <c r="D16" s="7">
-        <v>223668</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>238571</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H16" s="7">
-        <v>261</v>
-      </c>
-      <c r="I16" s="7">
-        <v>192998</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>525</v>
       </c>
       <c r="N16" s="7">
-        <v>416666</v>
+        <v>429941</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,49 +4790,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7">
+        <v>67344</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" s="7">
         <v>53</v>
       </c>
-      <c r="D17" s="7">
-        <v>46434</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>46907</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H17" s="7">
-        <v>57</v>
-      </c>
-      <c r="I17" s="7">
-        <v>50561</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
       </c>
       <c r="N17" s="7">
-        <v>96995</v>
+        <v>114250</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,49 +4841,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7">
+        <v>16744</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
-        <v>19322</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>20005</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="H18" s="7">
-        <v>24</v>
-      </c>
-      <c r="I18" s="7">
-        <v>17074</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
       </c>
       <c r="N18" s="7">
-        <v>36396</v>
+        <v>36749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,7 +4895,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4904,7 +4910,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4919,7 +4925,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4939,49 +4945,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>722</v>
+      </c>
+      <c r="D20" s="7">
+        <v>488765</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H20" s="7">
         <v>748</v>
       </c>
-      <c r="D20" s="7">
-        <v>552075</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>581738</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="H20" s="7">
-        <v>722</v>
-      </c>
-      <c r="I20" s="7">
-        <v>491030</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>1470</v>
       </c>
       <c r="N20" s="7">
-        <v>1043105</v>
+        <v>1070503</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,25 +4996,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>106759</v>
+        <v>121613</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>394</v>
       </c>
       <c r="H21" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I21" s="7">
-        <v>106231</v>
+        <v>109682</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>395</v>
@@ -5023,16 +5029,16 @@
         <v>281</v>
       </c>
       <c r="N21" s="7">
-        <v>212990</v>
+        <v>231295</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,49 +5047,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7">
+        <v>54360</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H22" s="7">
         <v>87</v>
       </c>
-      <c r="D22" s="7">
-        <v>65968</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H22" s="7">
-        <v>80</v>
-      </c>
       <c r="I22" s="7">
-        <v>55280</v>
+        <v>69608</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>167</v>
       </c>
       <c r="N22" s="7">
-        <v>121248</v>
+        <v>123969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,25 +5098,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>942</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664738</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>976</v>
       </c>
-      <c r="D23" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>942</v>
-      </c>
       <c r="I23" s="7">
-        <v>652540</v>
+        <v>761028</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5125,7 +5131,7 @@
         <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>1377343</v>
+        <v>1425767</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5139,7 +5145,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
